--- a/resultados/obsoleto/resultados_without_prepro.xlsx
+++ b/resultados/obsoleto/resultados_without_prepro.xlsx
@@ -2086,8 +2086,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9b2a30e095b2a99c7a4efd6f687c21a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae991ae10615842d01d4ebb88da5dac4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d843d1c7e7f025820150451ac71dab0b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7d841d9c1cdff30d97ae0bcf8819b27" ns2:_="" ns3:_="">
     <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
     <xsd:import namespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
     <xsd:element name="properties">
@@ -2107,6 +2107,9 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2166,6 +2169,18 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5543dc2c-c282-4bcc-a46d-38262559636a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2195,6 +2210,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{83ae4c1f-d67f-4a87-af80-ce0cceed7fb6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2307,12 +2333,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="116ddbad-b67c-4622-b846-55da43670eb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402760A3-EEAC-4E64-B5FE-3B92994045F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{733FA6B2-38A0-47D5-8CC5-514030AFFB86}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
